--- a/img_out/Dec_Area_Data.xlsx
+++ b/img_out/Dec_Area_Data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DF_area</t>
+          <t>PSZ_area</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,12 +478,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>66396</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.37</t>
+          <t>95910</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>53935</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16.82</t>
+          <t>75498</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>36822</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>81331</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>52605</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>81361</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>51051</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.03</t>
+          <t>76437</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>51557</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17.57</t>
+          <t>78892</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>58790</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19.38</t>
+          <t>87000</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>40505</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>76990</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,12 +694,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.41</t>
+          <t>64692</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27.49</t>
+          <t>123386</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.27</t>
+          <t>50579</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>88677</t>
         </is>
       </c>
     </row>
